--- a/dataset/cleanData/dataClean.xlsx
+++ b/dataset/cleanData/dataClean.xlsx
@@ -3095,80 +3095,80 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>44925</v>
+        <v>44560</v>
       </c>
       <c r="C34" t="n">
-        <v>342985667</v>
+        <v>147110891</v>
       </c>
       <c r="D34" t="n">
-        <v>89922107</v>
+        <v>36432528</v>
       </c>
       <c r="E34" t="n">
-        <v>432907774</v>
+        <v>183543419</v>
       </c>
       <c r="F34" t="n">
-        <v>286725416</v>
+        <v>107915125</v>
       </c>
       <c r="G34" t="n">
-        <v>27529802</v>
+        <v>2754767</v>
       </c>
       <c r="H34" t="n">
-        <v>314255218</v>
+        <v>110669892</v>
       </c>
       <c r="I34" t="n">
-        <v>118652556</v>
+        <v>72873527</v>
       </c>
       <c r="J34" t="n">
-        <v>432907774</v>
+        <v>183543419</v>
       </c>
       <c r="K34" t="n">
-        <v>29016021</v>
+        <v>23508670</v>
       </c>
       <c r="L34" t="n">
-        <v>29016021</v>
+        <v>23508670</v>
       </c>
       <c r="M34" t="n">
-        <v>-1491116</v>
+        <v>-3700808</v>
       </c>
       <c r="N34" t="n">
-        <v>24710914</v>
+        <v>17632247</v>
       </c>
       <c r="O34" t="n">
-        <v>29.13</v>
+        <v>41.72</v>
       </c>
       <c r="P34" t="n">
-        <v>1.93</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.51</v>
+        <v>10.7</v>
       </c>
       <c r="R34" t="n">
-        <v>7.08</v>
+        <v>18.5</v>
       </c>
       <c r="S34" t="n">
-        <v>2.79</v>
+        <v>7.91</v>
       </c>
       <c r="T34" t="n">
         <v>3</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3332,68 +3332,68 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44925</v>
+        <v>44196</v>
       </c>
       <c r="C37" t="n">
-        <v>13993593</v>
+        <v>140583805</v>
       </c>
       <c r="D37" t="n">
-        <v>774221</v>
+        <v>35483432</v>
       </c>
       <c r="E37" t="n">
-        <v>14767814</v>
+        <v>176067237</v>
       </c>
       <c r="F37" t="n">
-        <v>5813692</v>
+        <v>99599336</v>
       </c>
       <c r="G37" t="n">
-        <v>60195</v>
+        <v>2326387</v>
       </c>
       <c r="H37" t="n">
-        <v>5873887</v>
+        <v>101925723</v>
       </c>
       <c r="I37" t="n">
-        <v>8893927</v>
+        <v>74141514</v>
       </c>
       <c r="J37" t="n">
-        <v>14767814</v>
+        <v>176067237</v>
       </c>
       <c r="K37" t="n">
-        <v>1219930</v>
+        <v>23508670</v>
       </c>
       <c r="L37" t="n">
-        <v>1219930</v>
+        <v>23508670</v>
       </c>
       <c r="M37" t="n">
-        <v>-12</v>
+        <v>-1271314</v>
       </c>
       <c r="N37" t="n">
-        <v>1430688</v>
+        <v>12601921</v>
       </c>
       <c r="O37" t="n">
-        <v>-50.13</v>
+        <v>4.5</v>
       </c>
       <c r="P37" t="n">
-        <v>7.17</v>
+        <v>6.26</v>
       </c>
       <c r="Q37" t="n">
-        <v>8.359999999999999</v>
+        <v>8.02</v>
       </c>
       <c r="R37" t="n">
-        <v>21.61</v>
+        <v>17.43</v>
       </c>
       <c r="S37" t="n">
-        <v>6.92</v>
+        <v>6.5</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>2</v>
@@ -3402,7 +3402,7 @@
         <v>2</v>
       </c>
       <c r="X37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y37" t="n">
         <v>2</v>
@@ -3569,80 +3569,80 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>44925</v>
+        <v>43830</v>
       </c>
       <c r="C40" t="n">
-        <v>26965716</v>
+        <v>146852680</v>
       </c>
       <c r="D40" t="n">
-        <v>58614609</v>
+        <v>39779823</v>
       </c>
       <c r="E40" t="n">
-        <v>85580325</v>
+        <v>186632503</v>
       </c>
       <c r="F40" t="n">
-        <v>15699754</v>
+        <v>109397843</v>
       </c>
       <c r="G40" t="n">
-        <v>9187840</v>
+        <v>2593270</v>
       </c>
       <c r="H40" t="n">
-        <v>24887594</v>
+        <v>111991113</v>
       </c>
       <c r="I40" t="n">
-        <v>60692731</v>
+        <v>74641390</v>
       </c>
       <c r="J40" t="n">
-        <v>85580325</v>
+        <v>186632503</v>
       </c>
       <c r="K40" t="n">
-        <v>12065568</v>
+        <v>23508670</v>
       </c>
       <c r="L40" t="n">
-        <v>12065568</v>
+        <v>23508670</v>
       </c>
       <c r="M40" t="n">
-        <v>-162874</v>
+        <v>-1271314</v>
       </c>
       <c r="N40" t="n">
-        <v>11338116</v>
+        <v>12363838</v>
       </c>
       <c r="O40" t="n">
-        <v>-22.28</v>
+        <v>18.05</v>
       </c>
       <c r="P40" t="n">
-        <v>19.44</v>
+        <v>5.29</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.7</v>
+        <v>6.95</v>
       </c>
       <c r="R40" t="n">
-        <v>8.02</v>
+        <v>15.36</v>
       </c>
       <c r="S40" t="n">
-        <v>-2.49</v>
+        <v>5.25</v>
       </c>
       <c r="T40" t="n">
         <v>3</v>
       </c>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -5311,31 +5311,31 @@
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>44560</v>
+        <v>43462</v>
       </c>
       <c r="C62" t="n">
-        <v>147110891</v>
+        <v>157984918</v>
       </c>
       <c r="D62" t="n">
-        <v>36432528</v>
+        <v>39151151</v>
       </c>
       <c r="E62" t="n">
-        <v>183543419</v>
+        <v>197136069</v>
       </c>
       <c r="F62" t="n">
-        <v>107915125</v>
+        <v>120612081</v>
       </c>
       <c r="G62" t="n">
-        <v>2754767</v>
+        <v>1845587</v>
       </c>
       <c r="H62" t="n">
-        <v>110669892</v>
+        <v>122457668</v>
       </c>
       <c r="I62" t="n">
-        <v>72873527</v>
+        <v>74678401</v>
       </c>
       <c r="J62" t="n">
-        <v>183543419</v>
+        <v>197136069</v>
       </c>
       <c r="K62" t="n">
         <v>23508670</v>
@@ -5344,31 +5344,31 @@
         <v>23508670</v>
       </c>
       <c r="M62" t="n">
-        <v>-3700808</v>
+        <v>-1248722</v>
       </c>
       <c r="N62" t="n">
-        <v>17632247</v>
+        <v>10784121</v>
       </c>
       <c r="O62" t="n">
-        <v>41.72</v>
+        <v>202.8</v>
       </c>
       <c r="P62" t="n">
-        <v>8.449999999999999</v>
+        <v>3.85</v>
       </c>
       <c r="Q62" t="n">
-        <v>10.7</v>
+        <v>5.21</v>
       </c>
       <c r="R62" t="n">
-        <v>18.5</v>
+        <v>13.09</v>
       </c>
       <c r="S62" t="n">
-        <v>7.91</v>
+        <v>3.61</v>
       </c>
       <c r="T62" t="n">
         <v>3</v>
       </c>
       <c r="U62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V62" t="n">
         <v>2</v>
@@ -7835,80 +7835,80 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>44560</v>
+        <v>43098</v>
       </c>
       <c r="C94" t="n">
-        <v>421786551</v>
+        <v>145063307</v>
       </c>
       <c r="D94" t="n">
-        <v>75511255</v>
+        <v>44932450</v>
       </c>
       <c r="E94" t="n">
-        <v>497297806</v>
+        <v>189995757</v>
       </c>
       <c r="F94" t="n">
-        <v>365583359</v>
+        <v>114596707</v>
       </c>
       <c r="G94" t="n">
-        <v>39229668</v>
+        <v>1631621</v>
       </c>
       <c r="H94" t="n">
-        <v>404813027</v>
+        <v>116228328</v>
       </c>
       <c r="I94" t="n">
-        <v>92484779</v>
+        <v>73767429</v>
       </c>
       <c r="J94" t="n">
-        <v>497297806</v>
+        <v>189995757</v>
       </c>
       <c r="K94" t="n">
-        <v>29032521</v>
+        <v>23508670</v>
       </c>
       <c r="L94" t="n">
-        <v>29032521</v>
+        <v>23508670</v>
       </c>
       <c r="M94" t="n">
-        <v>-1607259</v>
+        <v>-1248722</v>
       </c>
       <c r="N94" t="n">
-        <v>19234277</v>
+        <v>3371594</v>
       </c>
       <c r="O94" t="n">
-        <v>14.1</v>
+        <v>-71.93000000000001</v>
       </c>
       <c r="P94" t="n">
-        <v>1.71</v>
+        <v>1.23</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.23</v>
+        <v>1.57</v>
       </c>
       <c r="R94" t="n">
-        <v>5.93</v>
+        <v>12.91</v>
       </c>
       <c r="S94" t="n">
-        <v>1.9</v>
+        <v>3.89</v>
       </c>
       <c r="T94" t="n">
         <v>3</v>
       </c>
       <c r="U94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -8072,80 +8072,80 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>44560</v>
+        <v>42734</v>
       </c>
       <c r="C97" t="n">
-        <v>15422807</v>
+        <v>157924039</v>
       </c>
       <c r="D97" t="n">
-        <v>471143</v>
+        <v>52932749</v>
       </c>
       <c r="E97" t="n">
-        <v>15893950</v>
+        <v>210856788</v>
       </c>
       <c r="F97" t="n">
-        <v>7013600</v>
+        <v>116321118</v>
       </c>
       <c r="G97" t="n">
-        <v>91506</v>
+        <v>15255234</v>
       </c>
       <c r="H97" t="n">
-        <v>7105106</v>
+        <v>131576352</v>
       </c>
       <c r="I97" t="n">
-        <v>8788844</v>
+        <v>79280436</v>
       </c>
       <c r="J97" t="n">
-        <v>15893950</v>
+        <v>210856788</v>
       </c>
       <c r="K97" t="n">
-        <v>1229254</v>
+        <v>23508670</v>
       </c>
       <c r="L97" t="n">
-        <v>1229254</v>
+        <v>23508670</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>-1248722</v>
       </c>
       <c r="N97" t="n">
-        <v>3059966</v>
+        <v>12643027</v>
       </c>
       <c r="O97" t="n">
-        <v>63.06</v>
+        <v>28.17</v>
       </c>
       <c r="P97" t="n">
-        <v>12.45</v>
+        <v>4.08</v>
       </c>
       <c r="Q97" t="n">
-        <v>15.48</v>
+        <v>5.51</v>
       </c>
       <c r="R97" t="n">
-        <v>28.15</v>
+        <v>13.62</v>
       </c>
       <c r="S97" t="n">
-        <v>15.47</v>
+        <v>5.54</v>
       </c>
       <c r="T97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U97" t="n">
         <v>2</v>
       </c>
       <c r="V97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -8309,62 +8309,62 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>44560</v>
+        <v>42369</v>
       </c>
       <c r="C100" t="n">
-        <v>27591458</v>
+        <v>150313451</v>
       </c>
       <c r="D100" t="n">
-        <v>48757344</v>
+        <v>59340412</v>
       </c>
       <c r="E100" t="n">
-        <v>76348802</v>
+        <v>209653863</v>
       </c>
       <c r="F100" t="n">
-        <v>15673947</v>
+        <v>109830689</v>
       </c>
       <c r="G100" t="n">
-        <v>8068490</v>
+        <v>20139581</v>
       </c>
       <c r="H100" t="n">
-        <v>23742437</v>
+        <v>129970270</v>
       </c>
       <c r="I100" t="n">
-        <v>52606365</v>
+        <v>79683593</v>
       </c>
       <c r="J100" t="n">
-        <v>76348802</v>
+        <v>209653863</v>
       </c>
       <c r="K100" t="n">
-        <v>12065568</v>
+        <v>23349283</v>
       </c>
       <c r="L100" t="n">
-        <v>12065568</v>
+        <v>23349283</v>
       </c>
       <c r="M100" t="n">
-        <v>-239876</v>
+        <v>-1248722</v>
       </c>
       <c r="N100" t="n">
-        <v>18702622</v>
+        <v>10006641</v>
       </c>
       <c r="O100" t="n">
-        <v>319.59</v>
+        <v>28.82</v>
       </c>
       <c r="P100" t="n">
-        <v>28.35</v>
+        <v>3.37</v>
       </c>
       <c r="Q100" t="n">
-        <v>44.33</v>
+        <v>4.61</v>
       </c>
       <c r="R100" t="n">
-        <v>10.34</v>
+        <v>12.97</v>
       </c>
       <c r="S100" t="n">
-        <v>0.1</v>
+        <v>3.99</v>
       </c>
       <c r="T100" t="n">
         <v>3</v>
@@ -8373,16 +8373,16 @@
         <v>3</v>
       </c>
       <c r="V100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -10051,76 +10051,76 @@
         </is>
       </c>
       <c r="B122" s="2" t="n">
-        <v>44196</v>
+        <v>42004</v>
       </c>
       <c r="C122" t="n">
-        <v>140583805</v>
+        <v>153720896</v>
       </c>
       <c r="D122" t="n">
-        <v>35483432</v>
+        <v>62812933</v>
       </c>
       <c r="E122" t="n">
-        <v>176067237</v>
+        <v>216533829</v>
       </c>
       <c r="F122" t="n">
-        <v>99599336</v>
+        <v>120288626</v>
       </c>
       <c r="G122" t="n">
-        <v>2326387</v>
+        <v>17072565</v>
       </c>
       <c r="H122" t="n">
-        <v>101925723</v>
+        <v>137361191</v>
       </c>
       <c r="I122" t="n">
-        <v>74141514</v>
+        <v>79172638</v>
       </c>
       <c r="J122" t="n">
-        <v>176067237</v>
+        <v>216533829</v>
       </c>
       <c r="K122" t="n">
-        <v>23508670</v>
+        <v>23416737</v>
       </c>
       <c r="L122" t="n">
-        <v>23508670</v>
+        <v>23416737</v>
       </c>
       <c r="M122" t="n">
-        <v>-1271314</v>
+        <v>-1248722</v>
       </c>
       <c r="N122" t="n">
-        <v>12601921</v>
+        <v>7747872</v>
       </c>
       <c r="O122" t="n">
-        <v>4.5</v>
+        <v>-36.15</v>
       </c>
       <c r="P122" t="n">
-        <v>6.26</v>
+        <v>2.46</v>
       </c>
       <c r="Q122" t="n">
-        <v>8.02</v>
+        <v>3.36</v>
       </c>
       <c r="R122" t="n">
-        <v>17.43</v>
+        <v>12.25</v>
       </c>
       <c r="S122" t="n">
-        <v>6.5</v>
+        <v>3.09</v>
       </c>
       <c r="T122" t="n">
         <v>3</v>
       </c>
       <c r="U122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X122" t="n">
         <v>1</v>
       </c>
       <c r="Y122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -12575,62 +12575,62 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B154" s="2" t="n">
-        <v>44196</v>
+        <v>41639</v>
       </c>
       <c r="C154" t="n">
-        <v>361960347</v>
+        <v>150430691</v>
       </c>
       <c r="D154" t="n">
-        <v>66862098</v>
+        <v>61930795</v>
       </c>
       <c r="E154" t="n">
-        <v>428822445</v>
+        <v>212361486</v>
       </c>
       <c r="F154" t="n">
-        <v>313699489</v>
+        <v>111356983</v>
       </c>
       <c r="G154" t="n">
-        <v>31196877</v>
+        <v>21767348</v>
       </c>
       <c r="H154" t="n">
-        <v>344896366</v>
+        <v>133124331</v>
       </c>
       <c r="I154" t="n">
-        <v>83926079</v>
+        <v>79237155</v>
       </c>
       <c r="J154" t="n">
-        <v>428822445</v>
+        <v>212361486</v>
       </c>
       <c r="K154" t="n">
-        <v>28406121</v>
+        <v>23246552</v>
       </c>
       <c r="L154" t="n">
-        <v>28406121</v>
+        <v>23276257</v>
       </c>
       <c r="M154" t="n">
-        <v>-1607259</v>
+        <v>-1334660</v>
       </c>
       <c r="N154" t="n">
-        <v>16845375</v>
+        <v>11519779</v>
       </c>
       <c r="O154" t="n">
-        <v>32.71</v>
+        <v>-5.18</v>
       </c>
       <c r="P154" t="n">
-        <v>1.53</v>
+        <v>4.17</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.99</v>
+        <v>5.4</v>
       </c>
       <c r="R154" t="n">
-        <v>5.45</v>
+        <v>14.31</v>
       </c>
       <c r="S154" t="n">
-        <v>1.71</v>
+        <v>4.71</v>
       </c>
       <c r="T154" t="n">
         <v>3</v>
@@ -12639,16 +12639,16 @@
         <v>1</v>
       </c>
       <c r="V154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -12812,80 +12812,80 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B157" s="2" t="n">
-        <v>44196</v>
+        <v>44925</v>
       </c>
       <c r="C157" t="n">
-        <v>11226039</v>
+        <v>342985667</v>
       </c>
       <c r="D157" t="n">
-        <v>489772</v>
+        <v>89922107</v>
       </c>
       <c r="E157" t="n">
-        <v>11715811</v>
+        <v>432907774</v>
       </c>
       <c r="F157" t="n">
-        <v>4325667</v>
+        <v>286725416</v>
       </c>
       <c r="G157" t="n">
-        <v>81708</v>
+        <v>27529802</v>
       </c>
       <c r="H157" t="n">
-        <v>4407375</v>
+        <v>314255218</v>
       </c>
       <c r="I157" t="n">
-        <v>7308436</v>
+        <v>118652556</v>
       </c>
       <c r="J157" t="n">
-        <v>11715811</v>
+        <v>432907774</v>
       </c>
       <c r="K157" t="n">
-        <v>1206424</v>
+        <v>29016021</v>
       </c>
       <c r="L157" t="n">
-        <v>1206424</v>
+        <v>29016021</v>
       </c>
       <c r="M157" t="n">
-        <v>0</v>
+        <v>-1491116</v>
       </c>
       <c r="N157" t="n">
-        <v>1855783</v>
+        <v>24710914</v>
       </c>
       <c r="O157" t="n">
-        <v>132.07</v>
+        <v>29.13</v>
       </c>
       <c r="P157" t="n">
-        <v>8.42</v>
+        <v>1.93</v>
       </c>
       <c r="Q157" t="n">
-        <v>10.36</v>
+        <v>2.51</v>
       </c>
       <c r="R157" t="n">
-        <v>21.51</v>
+        <v>7.08</v>
       </c>
       <c r="S157" t="n">
-        <v>10.37</v>
+        <v>2.79</v>
       </c>
       <c r="T157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -13049,74 +13049,74 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B160" s="2" t="n">
-        <v>44196</v>
+        <v>44560</v>
       </c>
       <c r="C160" t="n">
-        <v>21981509</v>
+        <v>421786551</v>
       </c>
       <c r="D160" t="n">
-        <v>35190226</v>
+        <v>75511255</v>
       </c>
       <c r="E160" t="n">
-        <v>57171735</v>
+        <v>497297806</v>
       </c>
       <c r="F160" t="n">
-        <v>12521697</v>
+        <v>365583359</v>
       </c>
       <c r="G160" t="n">
-        <v>1888543</v>
+        <v>39229668</v>
       </c>
       <c r="H160" t="n">
-        <v>14410240</v>
+        <v>404813027</v>
       </c>
       <c r="I160" t="n">
-        <v>42761495</v>
+        <v>92484779</v>
       </c>
       <c r="J160" t="n">
-        <v>57171735</v>
+        <v>497297806</v>
       </c>
       <c r="K160" t="n">
-        <v>12065568</v>
+        <v>29032521</v>
       </c>
       <c r="L160" t="n">
-        <v>12065568</v>
+        <v>29032521</v>
       </c>
       <c r="M160" t="n">
-        <v>-239876</v>
+        <v>-1607259</v>
       </c>
       <c r="N160" t="n">
-        <v>2980076</v>
+        <v>19234277</v>
       </c>
       <c r="O160" t="n">
-        <v>2.78</v>
+        <v>14.1</v>
       </c>
       <c r="P160" t="n">
-        <v>6.93</v>
+        <v>1.71</v>
       </c>
       <c r="Q160" t="n">
-        <v>7.24</v>
+        <v>2.23</v>
       </c>
       <c r="R160" t="n">
-        <v>11.24</v>
+        <v>5.93</v>
       </c>
       <c r="S160" t="n">
-        <v>0.18</v>
+        <v>1.9</v>
       </c>
       <c r="T160" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U160" t="n">
         <v>1</v>
       </c>
       <c r="V160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X160" t="n">
         <v>0</v>
@@ -14787,80 +14787,80 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B182" s="2" t="n">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="C182" t="n">
-        <v>146852680</v>
+        <v>361960347</v>
       </c>
       <c r="D182" t="n">
-        <v>39779823</v>
+        <v>66862098</v>
       </c>
       <c r="E182" t="n">
-        <v>186632503</v>
+        <v>428822445</v>
       </c>
       <c r="F182" t="n">
-        <v>109397843</v>
+        <v>313699489</v>
       </c>
       <c r="G182" t="n">
-        <v>2593270</v>
+        <v>31196877</v>
       </c>
       <c r="H182" t="n">
-        <v>111991113</v>
+        <v>344896366</v>
       </c>
       <c r="I182" t="n">
-        <v>74641390</v>
+        <v>83926079</v>
       </c>
       <c r="J182" t="n">
-        <v>186632503</v>
+        <v>428822445</v>
       </c>
       <c r="K182" t="n">
-        <v>23508670</v>
+        <v>28406121</v>
       </c>
       <c r="L182" t="n">
-        <v>23508670</v>
+        <v>28406121</v>
       </c>
       <c r="M182" t="n">
-        <v>-1271314</v>
+        <v>-1607259</v>
       </c>
       <c r="N182" t="n">
-        <v>12363838</v>
+        <v>16845375</v>
       </c>
       <c r="O182" t="n">
-        <v>18.05</v>
+        <v>32.71</v>
       </c>
       <c r="P182" t="n">
-        <v>5.29</v>
+        <v>1.53</v>
       </c>
       <c r="Q182" t="n">
-        <v>6.95</v>
+        <v>1.99</v>
       </c>
       <c r="R182" t="n">
-        <v>15.36</v>
+        <v>5.45</v>
       </c>
       <c r="S182" t="n">
-        <v>5.25</v>
+        <v>1.71</v>
       </c>
       <c r="T182" t="n">
         <v>3</v>
       </c>
       <c r="U182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -17552,80 +17552,80 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B217" s="2" t="n">
-        <v>43830</v>
+        <v>43462</v>
       </c>
       <c r="C217" t="n">
-        <v>9706137</v>
+        <v>275427144</v>
       </c>
       <c r="D217" t="n">
-        <v>560035</v>
+        <v>63675431</v>
       </c>
       <c r="E217" t="n">
-        <v>10266172</v>
+        <v>339102575</v>
       </c>
       <c r="F217" t="n">
-        <v>3747151</v>
+        <v>239878889</v>
       </c>
       <c r="G217" t="n">
-        <v>64554</v>
+        <v>25692104</v>
       </c>
       <c r="H217" t="n">
-        <v>3811705</v>
+        <v>265570993</v>
       </c>
       <c r="I217" t="n">
-        <v>6454467</v>
+        <v>73531582</v>
       </c>
       <c r="J217" t="n">
-        <v>10266172</v>
+        <v>339102575</v>
       </c>
       <c r="K217" t="n">
-        <v>1206472</v>
+        <v>28421220</v>
       </c>
       <c r="L217" t="n">
-        <v>1206472</v>
+        <v>28421220</v>
       </c>
       <c r="M217" t="n">
-        <v>0</v>
+        <v>-533236</v>
       </c>
       <c r="N217" t="n">
-        <v>784917</v>
+        <v>9658838</v>
       </c>
       <c r="O217" t="n">
-        <v>9.66</v>
+        <v>67.03</v>
       </c>
       <c r="P217" t="n">
-        <v>4.85</v>
+        <v>0.82</v>
       </c>
       <c r="Q217" t="n">
-        <v>5.85</v>
+        <v>1.09</v>
       </c>
       <c r="R217" t="n">
-        <v>18.18</v>
+        <v>4.22</v>
       </c>
       <c r="S217" t="n">
-        <v>5.72</v>
+        <v>1.21</v>
       </c>
       <c r="T217" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U217" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -17789,77 +17789,77 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B220" s="2" t="n">
-        <v>43830</v>
+        <v>43098</v>
       </c>
       <c r="C220" t="n">
-        <v>23189327</v>
+        <v>270205662</v>
       </c>
       <c r="D220" t="n">
-        <v>32221055</v>
+        <v>56447720</v>
       </c>
       <c r="E220" t="n">
-        <v>55410382</v>
+        <v>326653382</v>
       </c>
       <c r="F220" t="n">
-        <v>14102831</v>
+        <v>254191674</v>
       </c>
       <c r="G220" t="n">
-        <v>1752805</v>
+        <v>6040646</v>
       </c>
       <c r="H220" t="n">
-        <v>15855636</v>
+        <v>260232320</v>
       </c>
       <c r="I220" t="n">
-        <v>39554746</v>
+        <v>66421062</v>
       </c>
       <c r="J220" t="n">
-        <v>55410382</v>
+        <v>326653382</v>
       </c>
       <c r="K220" t="n">
-        <v>10772829</v>
+        <v>27486880</v>
       </c>
       <c r="L220" t="n">
-        <v>10772829</v>
+        <v>27486880</v>
       </c>
       <c r="M220" t="n">
-        <v>-353087</v>
+        <v>-1753005</v>
       </c>
       <c r="N220" t="n">
-        <v>3082908</v>
+        <v>6158411</v>
       </c>
       <c r="O220" t="n">
-        <v>-15.85</v>
+        <v>45.72</v>
       </c>
       <c r="P220" t="n">
-        <v>7.74</v>
+        <v>0.52</v>
       </c>
       <c r="Q220" t="n">
-        <v>8.6</v>
+        <v>0.74</v>
       </c>
       <c r="R220" t="n">
-        <v>14.48</v>
+        <v>3.78</v>
       </c>
       <c r="S220" t="n">
-        <v>1.4</v>
+        <v>0.71</v>
       </c>
       <c r="T220" t="n">
         <v>3</v>
       </c>
       <c r="U220" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y220" t="n">
         <v>1</v>
@@ -19448,62 +19448,62 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B241" s="2" t="n">
-        <v>43462</v>
+        <v>42734</v>
       </c>
       <c r="C241" t="n">
-        <v>157984918</v>
+        <v>225656731</v>
       </c>
       <c r="D241" t="n">
-        <v>39151151</v>
+        <v>57098827</v>
       </c>
       <c r="E241" t="n">
-        <v>197136069</v>
+        <v>282755558</v>
       </c>
       <c r="F241" t="n">
-        <v>120612081</v>
+        <v>197453207</v>
       </c>
       <c r="G241" t="n">
-        <v>1845587</v>
+        <v>17333902</v>
       </c>
       <c r="H241" t="n">
-        <v>122457668</v>
+        <v>214787109</v>
       </c>
       <c r="I241" t="n">
-        <v>74678401</v>
+        <v>67968449</v>
       </c>
       <c r="J241" t="n">
-        <v>197136069</v>
+        <v>282755558</v>
       </c>
       <c r="K241" t="n">
-        <v>23508670</v>
+        <v>26503165</v>
       </c>
       <c r="L241" t="n">
-        <v>23508670</v>
+        <v>26503165</v>
       </c>
       <c r="M241" t="n">
-        <v>-1248722</v>
+        <v>-2592278</v>
       </c>
       <c r="N241" t="n">
-        <v>10784121</v>
+        <v>4757100</v>
       </c>
       <c r="O241" t="n">
-        <v>202.8</v>
+        <v>135.5</v>
       </c>
       <c r="P241" t="n">
-        <v>3.85</v>
+        <v>0.45</v>
       </c>
       <c r="Q241" t="n">
-        <v>5.21</v>
+        <v>0.72</v>
       </c>
       <c r="R241" t="n">
-        <v>13.09</v>
+        <v>4.8</v>
       </c>
       <c r="S241" t="n">
-        <v>3.61</v>
+        <v>0.91</v>
       </c>
       <c r="T241" t="n">
         <v>3</v>
@@ -19512,16 +19512,16 @@
         <v>3</v>
       </c>
       <c r="V241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -21980,67 +21980,67 @@
         </is>
       </c>
       <c r="B273" s="2" t="n">
-        <v>43462</v>
+        <v>42369</v>
       </c>
       <c r="C273" t="n">
-        <v>275427144</v>
+        <v>232090337</v>
       </c>
       <c r="D273" t="n">
-        <v>63675431</v>
+        <v>58294707</v>
       </c>
       <c r="E273" t="n">
-        <v>339102575</v>
+        <v>290385044</v>
       </c>
       <c r="F273" t="n">
-        <v>239878889</v>
+        <v>199844353</v>
       </c>
       <c r="G273" t="n">
-        <v>25692104</v>
+        <v>21323478</v>
       </c>
       <c r="H273" t="n">
-        <v>265570993</v>
+        <v>221167831</v>
       </c>
       <c r="I273" t="n">
-        <v>73531582</v>
+        <v>69217213</v>
       </c>
       <c r="J273" t="n">
-        <v>339102575</v>
+        <v>290385044</v>
       </c>
       <c r="K273" t="n">
-        <v>28421220</v>
+        <v>25554824</v>
       </c>
       <c r="L273" t="n">
-        <v>28421220</v>
+        <v>25554824</v>
       </c>
       <c r="M273" t="n">
-        <v>-533236</v>
+        <v>-2721183</v>
       </c>
       <c r="N273" t="n">
-        <v>9658838</v>
+        <v>2370365</v>
       </c>
       <c r="O273" t="n">
-        <v>67.03</v>
+        <v>-64.61</v>
       </c>
       <c r="P273" t="n">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="Q273" t="n">
-        <v>1.09</v>
+        <v>0.38</v>
       </c>
       <c r="R273" t="n">
-        <v>4.22</v>
+        <v>4.72</v>
       </c>
       <c r="S273" t="n">
-        <v>1.21</v>
+        <v>0.38</v>
       </c>
       <c r="T273" t="n">
         <v>3</v>
       </c>
       <c r="U273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W273" t="n">
         <v>0</v>
@@ -22049,7 +22049,7 @@
         <v>0</v>
       </c>
       <c r="Y273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -22213,80 +22213,80 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B276" s="2" t="n">
-        <v>43462</v>
+        <v>42004</v>
       </c>
       <c r="C276" t="n">
-        <v>8664042</v>
+        <v>241405603</v>
       </c>
       <c r="D276" t="n">
-        <v>700151</v>
+        <v>58164320</v>
       </c>
       <c r="E276" t="n">
-        <v>9364193</v>
+        <v>299569923</v>
       </c>
       <c r="F276" t="n">
-        <v>3225809</v>
+        <v>202857866</v>
       </c>
       <c r="G276" t="n">
-        <v>26896</v>
+        <v>26704961</v>
       </c>
       <c r="H276" t="n">
-        <v>3252705</v>
+        <v>229562827</v>
       </c>
       <c r="I276" t="n">
-        <v>6111488</v>
+        <v>70007096</v>
       </c>
       <c r="J276" t="n">
-        <v>9364193</v>
+        <v>299569923</v>
       </c>
       <c r="K276" t="n">
-        <v>1207456</v>
+        <v>24682674</v>
       </c>
       <c r="L276" t="n">
-        <v>1207456</v>
+        <v>24682674</v>
       </c>
       <c r="M276" t="n">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="N276" t="n">
-        <v>694442</v>
+        <v>4844257</v>
       </c>
       <c r="O276" t="n">
-        <v>33.97</v>
+        <v>-37.6</v>
       </c>
       <c r="P276" t="n">
-        <v>5.82</v>
+        <v>0.61</v>
       </c>
       <c r="Q276" t="n">
-        <v>6.81</v>
+        <v>0.82</v>
       </c>
       <c r="R276" t="n">
-        <v>22.25</v>
+        <v>5.25</v>
       </c>
       <c r="S276" t="n">
-        <v>6.53</v>
+        <v>0.64</v>
       </c>
       <c r="T276" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -22450,77 +22450,77 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B279" s="2" t="n">
-        <v>43462</v>
+        <v>41639</v>
       </c>
       <c r="C279" t="n">
-        <v>19033549</v>
+        <v>216306422</v>
       </c>
       <c r="D279" t="n">
-        <v>29012602</v>
+        <v>54235352</v>
       </c>
       <c r="E279" t="n">
-        <v>48046151</v>
+        <v>270541774</v>
       </c>
       <c r="F279" t="n">
-        <v>9437584</v>
+        <v>168348939</v>
       </c>
       <c r="G279" t="n">
-        <v>805240</v>
+        <v>35996817</v>
       </c>
       <c r="H279" t="n">
-        <v>10242824</v>
+        <v>204345756</v>
       </c>
       <c r="I279" t="n">
-        <v>37803327</v>
+        <v>66196018</v>
       </c>
       <c r="J279" t="n">
-        <v>48046151</v>
+        <v>270541774</v>
       </c>
       <c r="K279" t="n">
-        <v>9367677</v>
+        <v>23781603</v>
       </c>
       <c r="L279" t="n">
-        <v>9367677</v>
+        <v>23781603</v>
       </c>
       <c r="M279" t="n">
-        <v>-353087</v>
+        <v>0</v>
       </c>
       <c r="N279" t="n">
-        <v>3472714</v>
+        <v>7915187</v>
       </c>
       <c r="O279" t="n">
-        <v>27.71</v>
+        <v>-20.62</v>
       </c>
       <c r="P279" t="n">
-        <v>10.72</v>
+        <v>0.92</v>
       </c>
       <c r="Q279" t="n">
-        <v>11.29</v>
+        <v>1.27</v>
       </c>
       <c r="R279" t="n">
-        <v>15.57</v>
+        <v>4.84</v>
       </c>
       <c r="S279" t="n">
-        <v>1.09</v>
+        <v>0.98</v>
       </c>
       <c r="T279" t="n">
         <v>3</v>
       </c>
       <c r="U279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V279" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y279" t="n">
         <v>1</v>
@@ -24109,77 +24109,77 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="B300" s="2" t="n">
-        <v>43098</v>
+        <v>44925</v>
       </c>
       <c r="C300" t="n">
-        <v>145063307</v>
+        <v>13993593</v>
       </c>
       <c r="D300" t="n">
-        <v>44932450</v>
+        <v>774221</v>
       </c>
       <c r="E300" t="n">
-        <v>189995757</v>
+        <v>14767814</v>
       </c>
       <c r="F300" t="n">
-        <v>114596707</v>
+        <v>5813692</v>
       </c>
       <c r="G300" t="n">
-        <v>1631621</v>
+        <v>60195</v>
       </c>
       <c r="H300" t="n">
-        <v>116228328</v>
+        <v>5873887</v>
       </c>
       <c r="I300" t="n">
-        <v>73767429</v>
+        <v>8893927</v>
       </c>
       <c r="J300" t="n">
-        <v>189995757</v>
+        <v>14767814</v>
       </c>
       <c r="K300" t="n">
-        <v>23508670</v>
+        <v>1219930</v>
       </c>
       <c r="L300" t="n">
-        <v>23508670</v>
+        <v>1219930</v>
       </c>
       <c r="M300" t="n">
-        <v>-1248722</v>
+        <v>-12</v>
       </c>
       <c r="N300" t="n">
-        <v>3371594</v>
+        <v>1430688</v>
       </c>
       <c r="O300" t="n">
-        <v>-71.93000000000001</v>
+        <v>-50.13</v>
       </c>
       <c r="P300" t="n">
-        <v>1.23</v>
+        <v>7.17</v>
       </c>
       <c r="Q300" t="n">
-        <v>1.57</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="R300" t="n">
-        <v>12.91</v>
+        <v>21.61</v>
       </c>
       <c r="S300" t="n">
-        <v>3.89</v>
+        <v>6.92</v>
       </c>
       <c r="T300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U300" t="n">
         <v>0</v>
       </c>
       <c r="V300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y300" t="n">
         <v>2</v>
@@ -26637,80 +26637,80 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="B332" s="2" t="n">
-        <v>43098</v>
+        <v>44560</v>
       </c>
       <c r="C332" t="n">
-        <v>270205662</v>
+        <v>15422807</v>
       </c>
       <c r="D332" t="n">
-        <v>56447720</v>
+        <v>471143</v>
       </c>
       <c r="E332" t="n">
-        <v>326653382</v>
+        <v>15893950</v>
       </c>
       <c r="F332" t="n">
-        <v>254191674</v>
+        <v>7013600</v>
       </c>
       <c r="G332" t="n">
-        <v>6040646</v>
+        <v>91506</v>
       </c>
       <c r="H332" t="n">
-        <v>260232320</v>
+        <v>7105106</v>
       </c>
       <c r="I332" t="n">
-        <v>66421062</v>
+        <v>8788844</v>
       </c>
       <c r="J332" t="n">
-        <v>326653382</v>
+        <v>15893950</v>
       </c>
       <c r="K332" t="n">
-        <v>27486880</v>
+        <v>1229254</v>
       </c>
       <c r="L332" t="n">
-        <v>27486880</v>
+        <v>1229254</v>
       </c>
       <c r="M332" t="n">
-        <v>-1753005</v>
+        <v>0</v>
       </c>
       <c r="N332" t="n">
-        <v>6158411</v>
+        <v>3059966</v>
       </c>
       <c r="O332" t="n">
-        <v>45.72</v>
+        <v>63.06</v>
       </c>
       <c r="P332" t="n">
-        <v>0.52</v>
+        <v>12.45</v>
       </c>
       <c r="Q332" t="n">
-        <v>0.74</v>
+        <v>15.48</v>
       </c>
       <c r="R332" t="n">
-        <v>3.78</v>
+        <v>28.15</v>
       </c>
       <c r="S332" t="n">
-        <v>0.71</v>
+        <v>15.47</v>
       </c>
       <c r="T332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V332" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W332" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y332" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -26878,58 +26878,58 @@
         </is>
       </c>
       <c r="B335" s="2" t="n">
-        <v>43098</v>
+        <v>44196</v>
       </c>
       <c r="C335" t="n">
-        <v>8605071</v>
+        <v>11226039</v>
       </c>
       <c r="D335" t="n">
-        <v>362132</v>
+        <v>489772</v>
       </c>
       <c r="E335" t="n">
-        <v>8967203</v>
+        <v>11715811</v>
       </c>
       <c r="F335" t="n">
-        <v>3252207</v>
+        <v>4325667</v>
       </c>
       <c r="G335" t="n">
-        <v>23003</v>
+        <v>81708</v>
       </c>
       <c r="H335" t="n">
-        <v>3275210</v>
+        <v>4407375</v>
       </c>
       <c r="I335" t="n">
-        <v>5691993</v>
+        <v>7308436</v>
       </c>
       <c r="J335" t="n">
-        <v>8967203</v>
+        <v>11715811</v>
       </c>
       <c r="K335" t="n">
-        <v>1207456</v>
+        <v>1206424</v>
       </c>
       <c r="L335" t="n">
-        <v>1207456</v>
+        <v>1206424</v>
       </c>
       <c r="M335" t="n">
         <v>0</v>
       </c>
       <c r="N335" t="n">
-        <v>561927</v>
+        <v>1855783</v>
       </c>
       <c r="O335" t="n">
-        <v>258.65</v>
+        <v>132.07</v>
       </c>
       <c r="P335" t="n">
-        <v>4.8</v>
+        <v>8.42</v>
       </c>
       <c r="Q335" t="n">
-        <v>6.1</v>
+        <v>10.36</v>
       </c>
       <c r="R335" t="n">
-        <v>21.26</v>
+        <v>21.51</v>
       </c>
       <c r="S335" t="n">
-        <v>5.48</v>
+        <v>10.37</v>
       </c>
       <c r="T335" t="n">
         <v>2</v>
@@ -26938,16 +26938,16 @@
         <v>3</v>
       </c>
       <c r="V335" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W335" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X335" t="n">
         <v>2</v>
       </c>
       <c r="Y335" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -27111,65 +27111,65 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="B338" s="2" t="n">
-        <v>43098</v>
+        <v>43830</v>
       </c>
       <c r="C338" t="n">
-        <v>20499461</v>
+        <v>9706137</v>
       </c>
       <c r="D338" t="n">
-        <v>26685802</v>
+        <v>560035</v>
       </c>
       <c r="E338" t="n">
-        <v>47185263</v>
+        <v>10266172</v>
       </c>
       <c r="F338" t="n">
-        <v>11651825</v>
+        <v>3747151</v>
       </c>
       <c r="G338" t="n">
-        <v>784822</v>
+        <v>64554</v>
       </c>
       <c r="H338" t="n">
-        <v>12436647</v>
+        <v>3811705</v>
       </c>
       <c r="I338" t="n">
-        <v>34748616</v>
+        <v>6454467</v>
       </c>
       <c r="J338" t="n">
-        <v>47185263</v>
+        <v>10266172</v>
       </c>
       <c r="K338" t="n">
-        <v>8190022</v>
+        <v>1206472</v>
       </c>
       <c r="L338" t="n">
-        <v>8190022</v>
+        <v>1206472</v>
       </c>
       <c r="M338" t="n">
-        <v>-522449</v>
+        <v>0</v>
       </c>
       <c r="N338" t="n">
-        <v>2902288</v>
+        <v>784917</v>
       </c>
       <c r="O338" t="n">
-        <v>-5.06</v>
+        <v>9.66</v>
       </c>
       <c r="P338" t="n">
-        <v>5.29</v>
+        <v>4.85</v>
       </c>
       <c r="Q338" t="n">
-        <v>5.95</v>
+        <v>5.85</v>
       </c>
       <c r="R338" t="n">
-        <v>11.62</v>
+        <v>18.18</v>
       </c>
       <c r="S338" t="n">
-        <v>1.52</v>
+        <v>5.72</v>
       </c>
       <c r="T338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U338" t="n">
         <v>2</v>
@@ -27181,10 +27181,10 @@
         <v>2</v>
       </c>
       <c r="X338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y338" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -27233,7 +27233,7 @@
         <v>317930</v>
       </c>
       <c r="O339" t="n">
-        <v>52.22224137931035</v>
+        <v>52.22224137931034</v>
       </c>
       <c r="P339" t="n">
         <v>14.25</v>
@@ -28770,65 +28770,65 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="B359" s="2" t="n">
-        <v>42734</v>
+        <v>43462</v>
       </c>
       <c r="C359" t="n">
-        <v>157924039</v>
+        <v>8664042</v>
       </c>
       <c r="D359" t="n">
-        <v>52932749</v>
+        <v>700151</v>
       </c>
       <c r="E359" t="n">
-        <v>210856788</v>
+        <v>9364193</v>
       </c>
       <c r="F359" t="n">
-        <v>116321118</v>
+        <v>3225809</v>
       </c>
       <c r="G359" t="n">
-        <v>15255234</v>
+        <v>26896</v>
       </c>
       <c r="H359" t="n">
-        <v>131576352</v>
+        <v>3252705</v>
       </c>
       <c r="I359" t="n">
-        <v>79280436</v>
+        <v>6111488</v>
       </c>
       <c r="J359" t="n">
-        <v>210856788</v>
+        <v>9364193</v>
       </c>
       <c r="K359" t="n">
-        <v>23508670</v>
+        <v>1207456</v>
       </c>
       <c r="L359" t="n">
-        <v>23508670</v>
+        <v>1207456</v>
       </c>
       <c r="M359" t="n">
-        <v>-1248722</v>
+        <v>-480</v>
       </c>
       <c r="N359" t="n">
-        <v>12643027</v>
+        <v>694442</v>
       </c>
       <c r="O359" t="n">
-        <v>28.17</v>
+        <v>33.97</v>
       </c>
       <c r="P359" t="n">
-        <v>4.08</v>
+        <v>5.82</v>
       </c>
       <c r="Q359" t="n">
-        <v>5.51</v>
+        <v>6.81</v>
       </c>
       <c r="R359" t="n">
-        <v>13.62</v>
+        <v>22.25</v>
       </c>
       <c r="S359" t="n">
-        <v>5.54</v>
+        <v>6.53</v>
       </c>
       <c r="T359" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U359" t="n">
         <v>2</v>
@@ -28840,7 +28840,7 @@
         <v>2</v>
       </c>
       <c r="X359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y359" t="n">
         <v>2</v>
@@ -31298,80 +31298,80 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="B391" s="2" t="n">
-        <v>42734</v>
+        <v>43098</v>
       </c>
       <c r="C391" t="n">
-        <v>225656731</v>
+        <v>8605071</v>
       </c>
       <c r="D391" t="n">
-        <v>57098827</v>
+        <v>362132</v>
       </c>
       <c r="E391" t="n">
-        <v>282755558</v>
+        <v>8967203</v>
       </c>
       <c r="F391" t="n">
-        <v>197453207</v>
+        <v>3252207</v>
       </c>
       <c r="G391" t="n">
-        <v>17333902</v>
+        <v>23003</v>
       </c>
       <c r="H391" t="n">
-        <v>214787109</v>
+        <v>3275210</v>
       </c>
       <c r="I391" t="n">
-        <v>67968449</v>
+        <v>5691993</v>
       </c>
       <c r="J391" t="n">
-        <v>282755558</v>
+        <v>8967203</v>
       </c>
       <c r="K391" t="n">
-        <v>26503165</v>
+        <v>1207456</v>
       </c>
       <c r="L391" t="n">
-        <v>26503165</v>
+        <v>1207456</v>
       </c>
       <c r="M391" t="n">
-        <v>-2592278</v>
+        <v>0</v>
       </c>
       <c r="N391" t="n">
-        <v>4757100</v>
+        <v>561927</v>
       </c>
       <c r="O391" t="n">
-        <v>135.5</v>
+        <v>258.65</v>
       </c>
       <c r="P391" t="n">
-        <v>0.45</v>
+        <v>4.8</v>
       </c>
       <c r="Q391" t="n">
-        <v>0.72</v>
+        <v>6.1</v>
       </c>
       <c r="R391" t="n">
-        <v>4.8</v>
+        <v>21.26</v>
       </c>
       <c r="S391" t="n">
-        <v>0.91</v>
+        <v>5.48</v>
       </c>
       <c r="T391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U391" t="n">
         <v>3</v>
       </c>
       <c r="V391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392">
@@ -31772,80 +31772,80 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="B397" s="2" t="n">
-        <v>42734</v>
+        <v>42369</v>
       </c>
       <c r="C397" t="n">
-        <v>25553342</v>
+        <v>7812156</v>
       </c>
       <c r="D397" t="n">
-        <v>24510596</v>
+        <v>319077</v>
       </c>
       <c r="E397" t="n">
-        <v>50063938</v>
+        <v>8131233</v>
       </c>
       <c r="F397" t="n">
-        <v>14887395</v>
+        <v>2244410</v>
       </c>
       <c r="G397" t="n">
-        <v>660130</v>
+        <v>30284</v>
       </c>
       <c r="H397" t="n">
-        <v>15547525</v>
+        <v>2274694</v>
       </c>
       <c r="I397" t="n">
-        <v>34516413</v>
+        <v>5856539</v>
       </c>
       <c r="J397" t="n">
-        <v>50063938</v>
+        <v>8131233</v>
       </c>
       <c r="K397" t="n">
-        <v>8156048</v>
+        <v>1150416</v>
       </c>
       <c r="L397" t="n">
-        <v>8156048</v>
+        <v>1150416</v>
       </c>
       <c r="M397" t="n">
-        <v>-522449</v>
+        <v>0</v>
       </c>
       <c r="N397" t="n">
-        <v>3060937</v>
+        <v>332210</v>
       </c>
       <c r="O397" t="n">
-        <v>54.98</v>
+        <v>-57.78</v>
       </c>
       <c r="P397" t="n">
-        <v>5.62</v>
+        <v>2.86</v>
       </c>
       <c r="Q397" t="n">
-        <v>6.33</v>
+        <v>4.6</v>
       </c>
       <c r="R397" t="n">
-        <v>11.49</v>
+        <v>19.67</v>
       </c>
       <c r="S397" t="n">
-        <v>1.41</v>
+        <v>4.9</v>
       </c>
       <c r="T397" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W397" t="n">
         <v>2</v>
       </c>
       <c r="X397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398">
@@ -33352,68 +33352,68 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="B417" s="2" t="n">
-        <v>42369</v>
+        <v>42004</v>
       </c>
       <c r="C417" t="n">
-        <v>150313451</v>
+        <v>7068735</v>
       </c>
       <c r="D417" t="n">
-        <v>59340412</v>
+        <v>616067</v>
       </c>
       <c r="E417" t="n">
-        <v>209653863</v>
+        <v>7684802</v>
       </c>
       <c r="F417" t="n">
-        <v>109830689</v>
+        <v>1696510</v>
       </c>
       <c r="G417" t="n">
-        <v>20139581</v>
+        <v>25436</v>
       </c>
       <c r="H417" t="n">
-        <v>129970270</v>
+        <v>1721946</v>
       </c>
       <c r="I417" t="n">
-        <v>79683593</v>
+        <v>5962856</v>
       </c>
       <c r="J417" t="n">
-        <v>209653863</v>
+        <v>7684802</v>
       </c>
       <c r="K417" t="n">
-        <v>23349283</v>
+        <v>1150416</v>
       </c>
       <c r="L417" t="n">
-        <v>23349283</v>
+        <v>1150416</v>
       </c>
       <c r="M417" t="n">
-        <v>-1248722</v>
+        <v>0</v>
       </c>
       <c r="N417" t="n">
-        <v>10006641</v>
+        <v>567365</v>
       </c>
       <c r="O417" t="n">
-        <v>28.82</v>
+        <v>-53.86</v>
       </c>
       <c r="P417" t="n">
-        <v>3.37</v>
+        <v>5.48</v>
       </c>
       <c r="Q417" t="n">
-        <v>4.61</v>
+        <v>6.37</v>
       </c>
       <c r="R417" t="n">
-        <v>12.97</v>
+        <v>18.38</v>
       </c>
       <c r="S417" t="n">
-        <v>3.99</v>
+        <v>6.43</v>
       </c>
       <c r="T417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V417" t="n">
         <v>2</v>
@@ -35880,80 +35880,80 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="B449" s="2" t="n">
-        <v>42369</v>
+        <v>41639</v>
       </c>
       <c r="C449" t="n">
-        <v>232090337</v>
+        <v>6849443</v>
       </c>
       <c r="D449" t="n">
-        <v>58294707</v>
+        <v>2154262</v>
       </c>
       <c r="E449" t="n">
-        <v>290385044</v>
+        <v>9003705</v>
       </c>
       <c r="F449" t="n">
-        <v>199844353</v>
+        <v>2635505</v>
       </c>
       <c r="G449" t="n">
-        <v>21323478</v>
+        <v>20560</v>
       </c>
       <c r="H449" t="n">
-        <v>221167831</v>
+        <v>2656065</v>
       </c>
       <c r="I449" t="n">
-        <v>69217213</v>
+        <v>6347640</v>
       </c>
       <c r="J449" t="n">
-        <v>290385044</v>
+        <v>9003705</v>
       </c>
       <c r="K449" t="n">
-        <v>25554824</v>
+        <v>1150416</v>
       </c>
       <c r="L449" t="n">
-        <v>25554824</v>
+        <v>1150416</v>
       </c>
       <c r="M449" t="n">
-        <v>-2721183</v>
+        <v>0</v>
       </c>
       <c r="N449" t="n">
-        <v>2370365</v>
+        <v>1267141</v>
       </c>
       <c r="O449" t="n">
-        <v>-64.61</v>
+        <v>2.15</v>
       </c>
       <c r="P449" t="n">
-        <v>0.2</v>
+        <v>10.21</v>
       </c>
       <c r="Q449" t="n">
-        <v>0.38</v>
+        <v>12.23</v>
       </c>
       <c r="R449" t="n">
-        <v>4.72</v>
+        <v>21.52</v>
       </c>
       <c r="S449" t="n">
-        <v>0.38</v>
+        <v>11.14</v>
       </c>
       <c r="T449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V449" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W449" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y449" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="450">
@@ -36117,80 +36117,80 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="B452" s="2" t="n">
-        <v>42369</v>
+        <v>44925</v>
       </c>
       <c r="C452" t="n">
-        <v>7812156</v>
+        <v>26965716</v>
       </c>
       <c r="D452" t="n">
-        <v>319077</v>
+        <v>58614609</v>
       </c>
       <c r="E452" t="n">
-        <v>8131233</v>
+        <v>85580325</v>
       </c>
       <c r="F452" t="n">
-        <v>2244410</v>
+        <v>15699754</v>
       </c>
       <c r="G452" t="n">
-        <v>30284</v>
+        <v>9187840</v>
       </c>
       <c r="H452" t="n">
-        <v>2274694</v>
+        <v>24887594</v>
       </c>
       <c r="I452" t="n">
-        <v>5856539</v>
+        <v>60692731</v>
       </c>
       <c r="J452" t="n">
-        <v>8131233</v>
+        <v>85580325</v>
       </c>
       <c r="K452" t="n">
-        <v>1150416</v>
+        <v>12065568</v>
       </c>
       <c r="L452" t="n">
-        <v>1150416</v>
+        <v>12065568</v>
       </c>
       <c r="M452" t="n">
-        <v>0</v>
+        <v>-162874</v>
       </c>
       <c r="N452" t="n">
-        <v>332210</v>
+        <v>11338116</v>
       </c>
       <c r="O452" t="n">
-        <v>-57.78</v>
+        <v>-22.28</v>
       </c>
       <c r="P452" t="n">
-        <v>2.86</v>
+        <v>19.44</v>
       </c>
       <c r="Q452" t="n">
-        <v>4.6</v>
+        <v>23.7</v>
       </c>
       <c r="R452" t="n">
-        <v>19.67</v>
+        <v>8.02</v>
       </c>
       <c r="S452" t="n">
-        <v>4.9</v>
+        <v>-2.49</v>
       </c>
       <c r="T452" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V452" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W452" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -36358,58 +36358,58 @@
         </is>
       </c>
       <c r="B455" s="2" t="n">
-        <v>42369</v>
+        <v>44560</v>
       </c>
       <c r="C455" t="n">
-        <v>21840171</v>
+        <v>27591458</v>
       </c>
       <c r="D455" t="n">
-        <v>23322519</v>
+        <v>48757344</v>
       </c>
       <c r="E455" t="n">
-        <v>45162690</v>
+        <v>76348802</v>
       </c>
       <c r="F455" t="n">
-        <v>10954621</v>
+        <v>15673947</v>
       </c>
       <c r="G455" t="n">
-        <v>653660</v>
+        <v>8068490</v>
       </c>
       <c r="H455" t="n">
-        <v>11608281</v>
+        <v>23742437</v>
       </c>
       <c r="I455" t="n">
-        <v>33554409</v>
+        <v>52606365</v>
       </c>
       <c r="J455" t="n">
-        <v>45162690</v>
+        <v>76348802</v>
       </c>
       <c r="K455" t="n">
-        <v>7778113</v>
+        <v>12065568</v>
       </c>
       <c r="L455" t="n">
-        <v>7778113</v>
+        <v>12065568</v>
       </c>
       <c r="M455" t="n">
-        <v>-522449</v>
+        <v>-239876</v>
       </c>
       <c r="N455" t="n">
-        <v>2014103</v>
+        <v>18702622</v>
       </c>
       <c r="O455" t="n">
-        <v>130.52</v>
+        <v>319.59</v>
       </c>
       <c r="P455" t="n">
-        <v>3.5</v>
+        <v>28.35</v>
       </c>
       <c r="Q455" t="n">
-        <v>4.02</v>
+        <v>44.33</v>
       </c>
       <c r="R455" t="n">
-        <v>11.16</v>
+        <v>10.34</v>
       </c>
       <c r="S455" t="n">
-        <v>0.59</v>
+        <v>0.1</v>
       </c>
       <c r="T455" t="n">
         <v>3</v>
@@ -36418,10 +36418,10 @@
         <v>3</v>
       </c>
       <c r="V455" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W455" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X455" t="n">
         <v>0</v>
@@ -37934,77 +37934,77 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="B475" s="2" t="n">
-        <v>42004</v>
+        <v>44196</v>
       </c>
       <c r="C475" t="n">
-        <v>153720896</v>
+        <v>21981509</v>
       </c>
       <c r="D475" t="n">
-        <v>62812933</v>
+        <v>35190226</v>
       </c>
       <c r="E475" t="n">
-        <v>216533829</v>
+        <v>57171735</v>
       </c>
       <c r="F475" t="n">
-        <v>120288626</v>
+        <v>12521697</v>
       </c>
       <c r="G475" t="n">
-        <v>17072565</v>
+        <v>1888543</v>
       </c>
       <c r="H475" t="n">
-        <v>137361191</v>
+        <v>14410240</v>
       </c>
       <c r="I475" t="n">
-        <v>79172638</v>
+        <v>42761495</v>
       </c>
       <c r="J475" t="n">
-        <v>216533829</v>
+        <v>57171735</v>
       </c>
       <c r="K475" t="n">
-        <v>23416737</v>
+        <v>12065568</v>
       </c>
       <c r="L475" t="n">
-        <v>23416737</v>
+        <v>12065568</v>
       </c>
       <c r="M475" t="n">
-        <v>-1248722</v>
+        <v>-239876</v>
       </c>
       <c r="N475" t="n">
-        <v>7747872</v>
+        <v>2980076</v>
       </c>
       <c r="O475" t="n">
-        <v>-36.15</v>
+        <v>2.78</v>
       </c>
       <c r="P475" t="n">
-        <v>2.46</v>
+        <v>6.93</v>
       </c>
       <c r="Q475" t="n">
-        <v>3.36</v>
+        <v>7.24</v>
       </c>
       <c r="R475" t="n">
-        <v>12.25</v>
+        <v>11.24</v>
       </c>
       <c r="S475" t="n">
-        <v>3.09</v>
+        <v>0.18</v>
       </c>
       <c r="T475" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V475" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W475" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y475" t="n">
         <v>1</v>
@@ -40462,80 +40462,80 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="B507" s="2" t="n">
-        <v>42004</v>
+        <v>43830</v>
       </c>
       <c r="C507" t="n">
-        <v>241405603</v>
+        <v>23189327</v>
       </c>
       <c r="D507" t="n">
-        <v>58164320</v>
+        <v>32221055</v>
       </c>
       <c r="E507" t="n">
-        <v>299569923</v>
+        <v>55410382</v>
       </c>
       <c r="F507" t="n">
-        <v>202857866</v>
+        <v>14102831</v>
       </c>
       <c r="G507" t="n">
-        <v>26704961</v>
+        <v>1752805</v>
       </c>
       <c r="H507" t="n">
-        <v>229562827</v>
+        <v>15855636</v>
       </c>
       <c r="I507" t="n">
-        <v>70007096</v>
+        <v>39554746</v>
       </c>
       <c r="J507" t="n">
-        <v>299569923</v>
+        <v>55410382</v>
       </c>
       <c r="K507" t="n">
-        <v>24682674</v>
+        <v>10772829</v>
       </c>
       <c r="L507" t="n">
-        <v>24682674</v>
+        <v>10772829</v>
       </c>
       <c r="M507" t="n">
-        <v>0</v>
+        <v>-353087</v>
       </c>
       <c r="N507" t="n">
-        <v>4844257</v>
+        <v>3082908</v>
       </c>
       <c r="O507" t="n">
-        <v>-37.6</v>
+        <v>-15.85</v>
       </c>
       <c r="P507" t="n">
-        <v>0.61</v>
+        <v>7.74</v>
       </c>
       <c r="Q507" t="n">
-        <v>0.82</v>
+        <v>8.6</v>
       </c>
       <c r="R507" t="n">
-        <v>5.25</v>
+        <v>14.48</v>
       </c>
       <c r="S507" t="n">
-        <v>0.64</v>
+        <v>1.4</v>
       </c>
       <c r="T507" t="n">
         <v>3</v>
       </c>
       <c r="U507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V507" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
@@ -40699,80 +40699,80 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="B510" s="2" t="n">
-        <v>42004</v>
+        <v>43462</v>
       </c>
       <c r="C510" t="n">
-        <v>7068735</v>
+        <v>19033549</v>
       </c>
       <c r="D510" t="n">
-        <v>616067</v>
+        <v>29012602</v>
       </c>
       <c r="E510" t="n">
-        <v>7684802</v>
+        <v>48046151</v>
       </c>
       <c r="F510" t="n">
-        <v>1696510</v>
+        <v>9437584</v>
       </c>
       <c r="G510" t="n">
-        <v>25436</v>
+        <v>805240</v>
       </c>
       <c r="H510" t="n">
-        <v>1721946</v>
+        <v>10242824</v>
       </c>
       <c r="I510" t="n">
-        <v>5962856</v>
+        <v>37803327</v>
       </c>
       <c r="J510" t="n">
-        <v>7684802</v>
+        <v>48046151</v>
       </c>
       <c r="K510" t="n">
-        <v>1150416</v>
+        <v>9367677</v>
       </c>
       <c r="L510" t="n">
-        <v>1150416</v>
+        <v>9367677</v>
       </c>
       <c r="M510" t="n">
-        <v>0</v>
+        <v>-353087</v>
       </c>
       <c r="N510" t="n">
-        <v>567365</v>
+        <v>3472714</v>
       </c>
       <c r="O510" t="n">
-        <v>-53.86</v>
+        <v>27.71</v>
       </c>
       <c r="P510" t="n">
-        <v>5.48</v>
+        <v>10.72</v>
       </c>
       <c r="Q510" t="n">
-        <v>6.37</v>
+        <v>11.29</v>
       </c>
       <c r="R510" t="n">
-        <v>18.38</v>
+        <v>15.57</v>
       </c>
       <c r="S510" t="n">
-        <v>6.43</v>
+        <v>1.09</v>
       </c>
       <c r="T510" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V510" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W510" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X510" t="n">
         <v>1</v>
       </c>
       <c r="Y510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -40940,76 +40940,76 @@
         </is>
       </c>
       <c r="B513" s="2" t="n">
-        <v>42004</v>
+        <v>43098</v>
       </c>
       <c r="C513" t="n">
-        <v>25753781</v>
+        <v>20499461</v>
       </c>
       <c r="D513" t="n">
-        <v>22450083</v>
+        <v>26685802</v>
       </c>
       <c r="E513" t="n">
-        <v>48203864</v>
+        <v>47185263</v>
       </c>
       <c r="F513" t="n">
-        <v>15421096</v>
+        <v>11651825</v>
       </c>
       <c r="G513" t="n">
-        <v>631149</v>
+        <v>784822</v>
       </c>
       <c r="H513" t="n">
-        <v>16052245</v>
+        <v>12436647</v>
       </c>
       <c r="I513" t="n">
-        <v>32151619</v>
+        <v>34748616</v>
       </c>
       <c r="J513" t="n">
-        <v>48203864</v>
+        <v>47185263</v>
       </c>
       <c r="K513" t="n">
-        <v>7694106</v>
+        <v>8190022</v>
       </c>
       <c r="L513" t="n">
-        <v>7694106</v>
+        <v>8190022</v>
       </c>
       <c r="M513" t="n">
-        <v>-506878</v>
+        <v>-522449</v>
       </c>
       <c r="N513" t="n">
-        <v>1050823</v>
+        <v>2902288</v>
       </c>
       <c r="O513" t="n">
-        <v>33.31</v>
+        <v>-5.06</v>
       </c>
       <c r="P513" t="n">
-        <v>1.81</v>
+        <v>5.29</v>
       </c>
       <c r="Q513" t="n">
-        <v>2.5</v>
+        <v>5.95</v>
       </c>
       <c r="R513" t="n">
-        <v>13.56</v>
+        <v>11.62</v>
       </c>
       <c r="S513" t="n">
-        <v>-0.86</v>
+        <v>1.52</v>
       </c>
       <c r="T513" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U513" t="n">
         <v>2</v>
       </c>
       <c r="V513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W513" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -42164,7 +42164,7 @@
         <v>99404</v>
       </c>
       <c r="O528" t="n">
-        <v>91.65473684210528</v>
+        <v>91.65473684210529</v>
       </c>
       <c r="P528" t="n">
         <v>1.76</v>
@@ -42516,68 +42516,68 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="B533" s="2" t="n">
-        <v>41639</v>
+        <v>42734</v>
       </c>
       <c r="C533" t="n">
-        <v>150430691</v>
+        <v>25553342</v>
       </c>
       <c r="D533" t="n">
-        <v>61930795</v>
+        <v>24510596</v>
       </c>
       <c r="E533" t="n">
-        <v>212361486</v>
+        <v>50063938</v>
       </c>
       <c r="F533" t="n">
-        <v>111356983</v>
+        <v>14887395</v>
       </c>
       <c r="G533" t="n">
-        <v>21767348</v>
+        <v>660130</v>
       </c>
       <c r="H533" t="n">
-        <v>133124331</v>
+        <v>15547525</v>
       </c>
       <c r="I533" t="n">
-        <v>79237155</v>
+        <v>34516413</v>
       </c>
       <c r="J533" t="n">
-        <v>212361486</v>
+        <v>50063938</v>
       </c>
       <c r="K533" t="n">
-        <v>23246552</v>
+        <v>8156048</v>
       </c>
       <c r="L533" t="n">
-        <v>23276257</v>
+        <v>8156048</v>
       </c>
       <c r="M533" t="n">
-        <v>-1334660</v>
+        <v>-522449</v>
       </c>
       <c r="N533" t="n">
-        <v>11519779</v>
+        <v>3060937</v>
       </c>
       <c r="O533" t="n">
-        <v>-5.18</v>
+        <v>54.98</v>
       </c>
       <c r="P533" t="n">
-        <v>4.17</v>
+        <v>5.62</v>
       </c>
       <c r="Q533" t="n">
-        <v>5.4</v>
+        <v>6.33</v>
       </c>
       <c r="R533" t="n">
-        <v>14.31</v>
+        <v>11.49</v>
       </c>
       <c r="S533" t="n">
-        <v>4.71</v>
+        <v>1.41</v>
       </c>
       <c r="T533" t="n">
         <v>3</v>
       </c>
       <c r="U533" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V533" t="n">
         <v>2</v>
@@ -42586,10 +42586,10 @@
         <v>2</v>
       </c>
       <c r="X533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y533" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -45044,80 +45044,80 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="B565" s="2" t="n">
-        <v>41639</v>
+        <v>42369</v>
       </c>
       <c r="C565" t="n">
-        <v>216306422</v>
+        <v>21840171</v>
       </c>
       <c r="D565" t="n">
-        <v>54235352</v>
+        <v>23322519</v>
       </c>
       <c r="E565" t="n">
-        <v>270541774</v>
+        <v>45162690</v>
       </c>
       <c r="F565" t="n">
-        <v>168348939</v>
+        <v>10954621</v>
       </c>
       <c r="G565" t="n">
-        <v>35996817</v>
+        <v>653660</v>
       </c>
       <c r="H565" t="n">
-        <v>204345756</v>
+        <v>11608281</v>
       </c>
       <c r="I565" t="n">
-        <v>66196018</v>
+        <v>33554409</v>
       </c>
       <c r="J565" t="n">
-        <v>270541774</v>
+        <v>45162690</v>
       </c>
       <c r="K565" t="n">
-        <v>23781603</v>
+        <v>7778113</v>
       </c>
       <c r="L565" t="n">
-        <v>23781603</v>
+        <v>7778113</v>
       </c>
       <c r="M565" t="n">
-        <v>0</v>
+        <v>-522449</v>
       </c>
       <c r="N565" t="n">
-        <v>7915187</v>
+        <v>2014103</v>
       </c>
       <c r="O565" t="n">
-        <v>-20.62</v>
+        <v>130.52</v>
       </c>
       <c r="P565" t="n">
-        <v>0.92</v>
+        <v>3.5</v>
       </c>
       <c r="Q565" t="n">
-        <v>1.27</v>
+        <v>4.02</v>
       </c>
       <c r="R565" t="n">
-        <v>4.84</v>
+        <v>11.16</v>
       </c>
       <c r="S565" t="n">
-        <v>0.98</v>
+        <v>0.59</v>
       </c>
       <c r="T565" t="n">
         <v>3</v>
       </c>
       <c r="U565" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V565" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X565" t="n">
         <v>0</v>
       </c>
       <c r="Y565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
@@ -45281,80 +45281,80 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="B568" s="2" t="n">
-        <v>41639</v>
+        <v>42004</v>
       </c>
       <c r="C568" t="n">
-        <v>6849443</v>
+        <v>25753781</v>
       </c>
       <c r="D568" t="n">
-        <v>2154262</v>
+        <v>22450083</v>
       </c>
       <c r="E568" t="n">
-        <v>9003705</v>
+        <v>48203864</v>
       </c>
       <c r="F568" t="n">
-        <v>2635505</v>
+        <v>15421096</v>
       </c>
       <c r="G568" t="n">
-        <v>20560</v>
+        <v>631149</v>
       </c>
       <c r="H568" t="n">
-        <v>2656065</v>
+        <v>16052245</v>
       </c>
       <c r="I568" t="n">
-        <v>6347640</v>
+        <v>32151619</v>
       </c>
       <c r="J568" t="n">
-        <v>9003705</v>
+        <v>48203864</v>
       </c>
       <c r="K568" t="n">
-        <v>1150416</v>
+        <v>7694106</v>
       </c>
       <c r="L568" t="n">
-        <v>1150416</v>
+        <v>7694106</v>
       </c>
       <c r="M568" t="n">
-        <v>0</v>
+        <v>-506878</v>
       </c>
       <c r="N568" t="n">
-        <v>1267141</v>
+        <v>1050823</v>
       </c>
       <c r="O568" t="n">
-        <v>2.15</v>
+        <v>33.31</v>
       </c>
       <c r="P568" t="n">
-        <v>10.21</v>
+        <v>1.81</v>
       </c>
       <c r="Q568" t="n">
-        <v>12.23</v>
+        <v>2.5</v>
       </c>
       <c r="R568" t="n">
-        <v>21.52</v>
+        <v>13.56</v>
       </c>
       <c r="S568" t="n">
-        <v>11.14</v>
+        <v>-0.86</v>
       </c>
       <c r="T568" t="n">
         <v>2</v>
       </c>
       <c r="U568" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V568" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W568" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X568" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y568" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
@@ -46588,7 +46588,7 @@
         <v>358034</v>
       </c>
       <c r="O584" t="n">
-        <v>-1159.094727272727</v>
+        <v>-1159.094727272728</v>
       </c>
       <c r="P584" t="n">
         <v>9.630000000000001</v>
@@ -46667,7 +46667,7 @@
         <v>-8911</v>
       </c>
       <c r="O585" t="n">
-        <v>-1159.094727272727</v>
+        <v>-1159.094727272728</v>
       </c>
       <c r="P585" t="n">
         <v>-2.09</v>
@@ -46746,13 +46746,13 @@
         <v>2017072.438596491</v>
       </c>
       <c r="O586" t="n">
-        <v>-1159.094727272727</v>
+        <v>-1159.094727272728</v>
       </c>
       <c r="P586" t="n">
         <v>3.724035087719298</v>
       </c>
       <c r="Q586" t="n">
-        <v>5.616842105263159</v>
+        <v>5.616842105263158</v>
       </c>
       <c r="R586" t="n">
         <v>21.69333333333333</v>
